--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF008_出張申請\ver4~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7176979D-BC99-4096-AB35-4E9A88C4A798}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80469767-881D-411C-A10A-573B87E1AB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6315" yWindow="900" windowWidth="17490" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="0" windowWidth="24615" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出張申請" sheetId="28" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <definedName name="kkkk" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="kkkk" hidden="1">#REF!</definedName>
     <definedName name="ｌ" hidden="1">{"VIEW1",#N/A,FALSE,"春木";"VIEW2",#N/A,FALSE,"春木";"VIEW3",#N/A,FALSE,"春木"}</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">出張申請!$A$1:$L$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">出張申請!$A$1:$L$36</definedName>
     <definedName name="sss" hidden="1">#REF!</definedName>
     <definedName name="Ver002001006特休残管理対応" hidden="1">#REF!</definedName>
     <definedName name="wrn.MIND." hidden="1">{#N/A,#N/A,TRUE,"Sheet2";#N/A,#N/A,TRUE,"Sheet3";#N/A,#N/A,TRUE,"Sheet4";#N/A,#N/A,TRUE,"Sheet1"}</definedName>
@@ -480,6 +480,24 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -503,24 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2581,7 +2581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
@@ -2618,10 +2618,10 @@
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="55"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2632,10 +2632,10 @@
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="55"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2659,8 +2659,8 @@
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2673,8 +2673,8 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2687,8 +2687,8 @@
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2719,12 +2719,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="53"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -2733,12 +2733,12 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
       <c r="H11" s="28"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="53"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
@@ -2747,12 +2747,12 @@
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="53"/>
       <c r="L12" s="1"/>
       <c r="N12" s="30"/>
     </row>
@@ -2762,12 +2762,12 @@
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="53"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
@@ -2776,12 +2776,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="53"/>
       <c r="H14" s="28"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="53"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
@@ -2790,12 +2790,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="53"/>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="53"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
@@ -2804,12 +2804,12 @@
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="53"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1">
@@ -2818,12 +2818,12 @@
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="53"/>
       <c r="H17" s="28"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="53"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1">
@@ -2832,12 +2832,12 @@
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1">
@@ -2846,12 +2846,12 @@
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="53"/>
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="53"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1">
@@ -2860,12 +2860,12 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="53"/>
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="53"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
@@ -2874,12 +2874,12 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="53"/>
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="53"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1">
@@ -2888,12 +2888,12 @@
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="53"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="53"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1">
@@ -2902,12 +2902,12 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="53"/>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="53"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1">
@@ -2916,12 +2916,12 @@
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="53"/>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="53"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
@@ -2930,12 +2930,12 @@
       <c r="C25" s="32"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="53"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="53"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="3.75" customHeight="1">
@@ -2952,18 +2952,18 @@
       <c r="K26" s="37"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="83.25" customHeight="1">
+    <row r="27" spans="1:12" ht="95.25" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="62"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="3.75" customHeight="1">
@@ -2996,16 +2996,16 @@
     </row>
     <row r="30" spans="1:12" ht="74.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="65"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="3.75" customHeight="1">
@@ -3107,18 +3107,16 @@
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="1"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="49"/>
+      <c r="K38" s="49"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
       <c r="B39" s="49"/>
@@ -3192,18 +3190,7 @@
       <c r="J44" s="49"/>
       <c r="K44" s="49"/>
     </row>
-    <row r="45" spans="1:12" ht="15" customHeight="1">
-      <c r="B45" s="49"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="49"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="49"/>
-    </row>
+    <row r="45" spans="1:12" ht="15" customHeight="1"/>
     <row r="46" spans="1:12" ht="15" customHeight="1"/>
     <row r="47" spans="1:12" ht="15" customHeight="1"/>
     <row r="48" spans="1:12" ht="15" customHeight="1"/>
@@ -3212,9 +3199,36 @@
     <row r="51" ht="15" customHeight="1"/>
     <row r="52" ht="15" customHeight="1"/>
     <row r="53" ht="15" customHeight="1"/>
-    <row r="54" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="C3:F3"/>
@@ -3228,34 +3242,6 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="J12:K12"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF008_出張申請\ver4~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80469767-881D-411C-A10A-573B87E1AB49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BBBB7-BF30-429B-BB8C-07E000D95CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="0" windowWidth="24615" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21390" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出張申請" sheetId="28" r:id="rId1"/>
@@ -62,10 +62,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,22 +551,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1716</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>614632</xdr:colOff>
+      <xdr:colOff>612916</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174130</xdr:rowOff>
+      <xdr:rowOff>160050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="65" name="APPORVAL1">
+        <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B1955F-FA3E-45BD-8AA6-7885D40B32DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8374BD-A7B6-49C6-BBAB-D2EF5C293D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -578,7 +574,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3164016" y="223630"/>
+          <a:off x="3162300" y="209550"/>
           <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
@@ -586,10 +582,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="66" name="円/楕円 2">
+          <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C156E10C-E8B7-4F45-BD6D-D2978AA38071}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2839496A-4D27-4D19-BE80-C1B9B628FF6D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -640,10 +636,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="67" name="直線コネクタ 66">
+          <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C99138-C43F-404A-A5C2-88915EFFD6CB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CF9D3A-7551-4392-8ABA-7E6B70EC20BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -680,10 +676,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="68" name="直線コネクタ 67">
+          <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{721F4046-D62E-424A-A00A-B8D6D3BCC753}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7789F3BD-8FFF-4528-8ECB-91F6BE7CFA9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -720,10 +716,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="69" name="NAME1">
+          <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C792741C-68A4-46BA-82E7-1845939D95C4}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0AE90E-4F04-4873-8273-3A072F5D9A16}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -761,22 +757,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="70" name="STATUS1">
+          <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EB40E-E6F5-4E5C-B2FE-2480DEEBBC0E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F29B78-25AA-4BD9-A608-4905598D6C46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -814,22 +813,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="71" name="DATE1">
+          <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1674D596-31FB-4C98-B939-B6D0C035E2D6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C60543-A4AF-4544-AAFF-160744A594D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -867,13 +869,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -883,22 +888,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>618238</xdr:colOff>
+      <xdr:colOff>616522</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>612029</xdr:colOff>
+      <xdr:colOff>610313</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174130</xdr:rowOff>
+      <xdr:rowOff>160050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="72" name="APPORVAL2">
+        <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F06F0980-4862-4824-9E5F-2A5770158EDD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB6313A-6925-4859-B75D-0E066C791200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -906,7 +911,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3780538" y="223630"/>
+          <a:off x="3778822" y="209550"/>
           <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
@@ -914,10 +919,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="73" name="円/楕円 2">
+          <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{587707DB-109D-46B4-8C8F-73469D36B9CA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF3A354-7C32-4F15-8BE6-6980439D5285}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -968,10 +973,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="74" name="直線コネクタ 73">
+          <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AD2029F-4454-473F-8CFA-DF2216C7E806}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B2C52-D984-43A1-A55D-33BD4C58F3F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1008,10 +1013,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="75" name="直線コネクタ 74">
+          <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0DC3E96-3055-489A-B89B-9C9DA194D093}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A99906B-309D-4FC1-960E-184DD7821FC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1048,10 +1053,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="76" name="NAME2">
+          <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D81417FD-0A6E-44E8-B0CB-497AEAA9CEF6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8642208-B8F9-4A09-9902-0A1CF68304E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1089,22 +1094,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="77" name="STATUS2">
+          <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C49E7F4-02AD-47BB-A967-EDA5D8BAA02C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1DCE04-1A18-417F-A203-52865E09A96B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1142,22 +1150,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="78" name="DATE2">
+          <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8389EC5-0245-4ABC-B1B7-22F833B11C11}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E5335-23FF-40F4-9060-7C3A39F611AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1195,13 +1206,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1211,22 +1225,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>4556</xdr:colOff>
+      <xdr:colOff>2840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>617472</xdr:colOff>
+      <xdr:colOff>615756</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174130</xdr:rowOff>
+      <xdr:rowOff>160050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="79" name="APPORVAL3">
+        <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0489C8-56BF-4F73-A0C2-115614ACDC90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFB009-2070-4ADF-812B-676FCF8A382B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1248,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4405106" y="223630"/>
+          <a:off x="4403390" y="209550"/>
           <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
@@ -1242,10 +1256,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="80" name="円/楕円 2">
+          <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59FC0746-AEEC-4C26-AF80-BF981A6F5DAC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D728E710-BF45-4687-AF61-686D67A5DF67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1296,10 +1310,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1242A7C-8301-47B5-B8ED-8C3D706BD351}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71127859-532D-401F-816E-DD842A7A108D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1336,10 +1350,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF27655A-17E2-480E-983E-58A3E4F4D9D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992C0201-5A9D-4F48-B9C6-B94291A46B56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1376,10 +1390,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="83" name="NAME3">
+          <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DA712EC-A8B9-4EFA-8339-034A61062227}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997BAAFB-6BC4-4B82-A038-09F7694A2B1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1417,22 +1431,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="84" name="STATUS3">
+          <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3462ABC4-A7E5-4EB8-A86C-6C960B6BFBD1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696F4AF0-6D3C-483D-A99D-E7D54EE0DEC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1470,22 +1487,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="85" name="DATE3">
+          <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DF5A57-EC28-4737-ACB5-FCCFC1EFD4FC}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE837A1-B6E7-4965-A9EF-F30923536805}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1523,13 +1543,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1539,22 +1562,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>618239</xdr:colOff>
+      <xdr:colOff>616523</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>612030</xdr:colOff>
+      <xdr:colOff>610314</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174130</xdr:rowOff>
+      <xdr:rowOff>160050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="86" name="APPORVAL4">
+        <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0BC8B37-9CEF-4D59-B05E-C508415DB387}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2AEBEE-1A0F-49F4-8123-AF3180BD54DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1585,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5018789" y="223630"/>
+          <a:off x="5017073" y="209550"/>
           <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
@@ -1570,10 +1593,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="87" name="円/楕円 2">
+          <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73105E46-4471-451B-8EF7-129886A0AE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A504E2-CFB4-436D-8941-BE7091CA996C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1624,10 +1647,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="88" name="直線コネクタ 87">
+          <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BECC25DB-00F4-493A-9BDE-192A731F2FA1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4930D486-B756-4A7F-A91C-E8ED69FB16D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1664,10 +1687,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="89" name="直線コネクタ 88">
+          <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{924C7365-89A6-4173-90F9-6FC918BF4051}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E34AADB-AC76-4754-A51F-C57716B572D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1704,10 +1727,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="90" name="NAME4">
+          <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1A13E55-AAE5-48D3-93F0-9A79E2876E6F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1E71A2-A50A-46A1-AC05-14B7DC9E3889}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1745,22 +1768,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="91" name="STATUS4">
+          <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3C2753F-2565-428D-AADC-9DA451DCA14B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7655D1-F4A8-48F8-8769-43B992910595}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1798,22 +1824,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="92" name="DATE4">
+          <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9862509B-BF03-4C2C-9AFC-89B1668E70E2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6FFF2E-BED1-42A8-B009-05AD76F80C09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1851,13 +1880,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1867,22 +1899,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>4557</xdr:colOff>
+      <xdr:colOff>2841</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>33130</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>617473</xdr:colOff>
+      <xdr:colOff>615757</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>174130</xdr:rowOff>
+      <xdr:rowOff>160050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="93" name="APPORVAL5">
+        <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC3BCDD-453E-4168-97E5-6465C768C0C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D754BAE-E6BD-4912-835B-D862B5660E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1890,7 +1922,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5643357" y="223630"/>
+          <a:off x="5641641" y="209550"/>
           <a:ext cx="612916" cy="522000"/>
           <a:chOff x="3466089" y="214591"/>
           <a:chExt cx="612916" cy="522000"/>
@@ -1898,10 +1930,10 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="94" name="円/楕円 2">
+          <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16E93C03-999C-41C9-9E66-42EBB20BE593}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BD216-4003-4EB1-ADAC-5A418CDF22D2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1952,10 +1984,10 @@
       </xdr:sp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="95" name="直線コネクタ 94">
+          <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0616920-9A62-4D8B-87E3-1DE272A793DF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B538AA7A-A766-4A41-AE7E-7A15A3C3FDAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1992,10 +2024,10 @@
       </xdr:cxnSp>
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="96" name="直線コネクタ 95">
+          <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D2C26E7-0AEF-4870-8CD1-5479D5CF6061}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D67A12-4856-4E6A-BE32-B2FBCACC7A3E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2032,10 +2064,10 @@
       </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="97" name="NAME5">
+          <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B74D66-215D-4DB5-9861-3EE95021CB6E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A7BC4-381F-4619-9A63-184E2A6328C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2073,22 +2105,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="98" name="STATUS5">
+          <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63EBCD51-4BD6-4130-9F29-5BC13BB46EDB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BA7DD-DA02-4F4A-8B1E-17AECD42B422}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2126,22 +2161,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="99" name="DATE5">
+          <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E139FF7-9B45-4F04-9E76-61C46585964F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6164D477-B512-4038-B30D-8685394C4A1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2179,13 +2217,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2952,7 +2993,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="95.25" customHeight="1">
+    <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="58"/>
       <c r="C27" s="59"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF008_出張申請\ver4~\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B4BBBB7-BF30-429B-BB8C-07E000D95CE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21390" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21390" windowHeight="14115"/>
   </bookViews>
   <sheets>
     <sheet name="出張申請" sheetId="28" r:id="rId1"/>
@@ -65,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="aaaa"/>
   </numFmts>
@@ -476,6 +475,30 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -494,38 +517,14 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1"/>
+    <cellStyle name="標準 2 2" xfId="4"/>
+    <cellStyle name="標準 3" xfId="3"/>
+    <cellStyle name="標準 3 2 2" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -566,7 +565,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8374BD-A7B6-49C6-BBAB-D2EF5C293D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC8374BD-A7B6-49C6-BBAB-D2EF5C293D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -585,7 +584,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2839496A-4D27-4D19-BE80-C1B9B628FF6D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2839496A-4D27-4D19-BE80-C1B9B628FF6D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -639,7 +638,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CF9D3A-7551-4392-8ABA-7E6B70EC20BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6CF9D3A-7551-4392-8ABA-7E6B70EC20BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -679,7 +678,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7789F3BD-8FFF-4528-8ECB-91F6BE7CFA9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7789F3BD-8FFF-4528-8ECB-91F6BE7CFA9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -719,7 +718,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0AE90E-4F04-4873-8273-3A072F5D9A16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA0AE90E-4F04-4873-8273-3A072F5D9A16}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -757,16 +756,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t>  </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -775,7 +771,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F29B78-25AA-4BD9-A608-4905598D6C46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6F29B78-25AA-4BD9-A608-4905598D6C46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -813,16 +809,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -831,7 +824,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C60543-A4AF-4544-AAFF-160744A594D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C60543-A4AF-4544-AAFF-160744A594D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -869,16 +862,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -903,7 +893,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB6313A-6925-4859-B75D-0E066C791200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CB6313A-6925-4859-B75D-0E066C791200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +912,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF3A354-7C32-4F15-8BE6-6980439D5285}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEF3A354-7C32-4F15-8BE6-6980439D5285}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -976,7 +966,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B2C52-D984-43A1-A55D-33BD4C58F3F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{264B2C52-D984-43A1-A55D-33BD4C58F3F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1016,7 +1006,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A99906B-309D-4FC1-960E-184DD7821FC7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A99906B-309D-4FC1-960E-184DD7821FC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1056,7 +1046,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8642208-B8F9-4A09-9902-0A1CF68304E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8642208-B8F9-4A09-9902-0A1CF68304E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1094,16 +1084,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1112,7 +1099,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1DCE04-1A18-417F-A203-52865E09A96B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1DCE04-1A18-417F-A203-52865E09A96B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1150,16 +1137,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1168,7 +1152,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E5335-23FF-40F4-9060-7C3A39F611AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D25E5335-23FF-40F4-9060-7C3A39F611AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1206,16 +1190,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1240,7 +1221,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFB009-2070-4ADF-812B-676FCF8A382B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BAFB009-2070-4ADF-812B-676FCF8A382B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1259,7 +1240,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D728E710-BF45-4687-AF61-686D67A5DF67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D728E710-BF45-4687-AF61-686D67A5DF67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1313,7 +1294,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71127859-532D-401F-816E-DD842A7A108D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71127859-532D-401F-816E-DD842A7A108D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1353,7 +1334,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992C0201-5A9D-4F48-B9C6-B94291A46B56}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992C0201-5A9D-4F48-B9C6-B94291A46B56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1393,7 +1374,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997BAAFB-6BC4-4B82-A038-09F7694A2B1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{997BAAFB-6BC4-4B82-A038-09F7694A2B1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1431,16 +1412,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1449,7 +1427,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696F4AF0-6D3C-483D-A99D-E7D54EE0DEC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696F4AF0-6D3C-483D-A99D-E7D54EE0DEC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1487,16 +1465,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1505,7 +1480,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE837A1-B6E7-4965-A9EF-F30923536805}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE837A1-B6E7-4965-A9EF-F30923536805}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1543,16 +1518,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1577,7 +1549,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2AEBEE-1A0F-49F4-8123-AF3180BD54DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D2AEBEE-1A0F-49F4-8123-AF3180BD54DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1568,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A504E2-CFB4-436D-8941-BE7091CA996C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17A504E2-CFB4-436D-8941-BE7091CA996C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1650,7 +1622,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4930D486-B756-4A7F-A91C-E8ED69FB16D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4930D486-B756-4A7F-A91C-E8ED69FB16D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1690,7 +1662,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E34AADB-AC76-4754-A51F-C57716B572D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E34AADB-AC76-4754-A51F-C57716B572D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1730,7 +1702,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1E71A2-A50A-46A1-AC05-14B7DC9E3889}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C1E71A2-A50A-46A1-AC05-14B7DC9E3889}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1768,16 +1740,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1786,7 +1755,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7655D1-F4A8-48F8-8769-43B992910595}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D7655D1-F4A8-48F8-8769-43B992910595}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1824,16 +1793,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1842,7 +1808,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6FFF2E-BED1-42A8-B009-05AD76F80C09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC6FFF2E-BED1-42A8-B009-05AD76F80C09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1880,16 +1846,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1914,7 +1877,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D754BAE-E6BD-4912-835B-D862B5660E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D754BAE-E6BD-4912-835B-D862B5660E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1896,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BD216-4003-4EB1-ADAC-5A418CDF22D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C76BD216-4003-4EB1-ADAC-5A418CDF22D2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1987,7 +1950,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B538AA7A-A766-4A41-AE7E-7A15A3C3FDAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B538AA7A-A766-4A41-AE7E-7A15A3C3FDAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2027,7 +1990,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D67A12-4856-4E6A-BE32-B2FBCACC7A3E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33D67A12-4856-4E6A-BE32-B2FBCACC7A3E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2067,7 +2030,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A7BC4-381F-4619-9A63-184E2A6328C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6A7BC4-381F-4619-9A63-184E2A6328C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2105,16 +2068,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2123,7 +2083,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BA7DD-DA02-4F4A-8B1E-17AECD42B422}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C96BA7DD-DA02-4F4A-8B1E-17AECD42B422}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2161,16 +2121,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2179,7 +2136,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6164D477-B512-4038-B30D-8685394C4A1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6164D477-B512-4038-B30D-8685394C4A1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2217,16 +2174,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-                <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
-                </a:solidFill>
-                <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-                <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              </a:rPr>
-              <a:t> </a:t>
-            </a:r>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2621,12 +2575,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2659,10 +2613,10 @@
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="55"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -2673,10 +2627,10 @@
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="55"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="63"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
@@ -2700,8 +2654,8 @@
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -2714,8 +2668,8 @@
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -2728,8 +2682,8 @@
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
       <c r="F8" s="16"/>
@@ -2760,12 +2714,12 @@
       <c r="C10" s="27"/>
       <c r="D10" s="28"/>
       <c r="E10" s="29"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
       <c r="H10" s="28"/>
       <c r="I10" s="29"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="53"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
@@ -2774,12 +2728,12 @@
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="53"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
       <c r="H11" s="28"/>
       <c r="I11" s="29"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="53"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
@@ -2788,12 +2742,12 @@
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
       <c r="H12" s="28"/>
       <c r="I12" s="29"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="53"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
       <c r="L12" s="1"/>
       <c r="N12" s="30"/>
     </row>
@@ -2803,12 +2757,12 @@
       <c r="C13" s="27"/>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
       <c r="H13" s="28"/>
       <c r="I13" s="29"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
@@ -2817,12 +2771,12 @@
       <c r="C14" s="27"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="53"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="28"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="53"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
@@ -2831,12 +2785,12 @@
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="53"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
       <c r="H15" s="28"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="53"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
@@ -2845,12 +2799,12 @@
       <c r="C16" s="27"/>
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="53"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
       <c r="H16" s="28"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="53"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1">
@@ -2859,12 +2813,12 @@
       <c r="C17" s="27"/>
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="53"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
       <c r="H17" s="28"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="53"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1">
@@ -2873,12 +2827,12 @@
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
       <c r="H18" s="28"/>
       <c r="I18" s="29"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1">
@@ -2887,12 +2841,12 @@
       <c r="C19" s="27"/>
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="53"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
       <c r="H19" s="28"/>
       <c r="I19" s="29"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="53"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1">
@@ -2901,12 +2855,12 @@
       <c r="C20" s="27"/>
       <c r="D20" s="28"/>
       <c r="E20" s="29"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="53"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
       <c r="H20" s="28"/>
       <c r="I20" s="29"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="53"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
@@ -2915,12 +2869,12 @@
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="29"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="53"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
       <c r="H21" s="28"/>
       <c r="I21" s="29"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="53"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1">
@@ -2929,12 +2883,12 @@
       <c r="C22" s="27"/>
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="53"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
       <c r="H22" s="28"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="53"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="61"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1">
@@ -2943,12 +2897,12 @@
       <c r="C23" s="27"/>
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="53"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1">
@@ -2957,12 +2911,12 @@
       <c r="C24" s="27"/>
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="53"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
       <c r="H24" s="28"/>
       <c r="I24" s="29"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="53"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
@@ -2971,12 +2925,12 @@
       <c r="C25" s="32"/>
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="53"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
       <c r="H25" s="28"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="53"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="3.75" customHeight="1">
@@ -2995,16 +2949,16 @@
     </row>
     <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="62"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="56"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="3.75" customHeight="1">
@@ -3037,16 +2991,16 @@
     </row>
     <row r="30" spans="1:12" ht="74.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="64"/>
-      <c r="G30" s="64"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="64"/>
-      <c r="J30" s="64"/>
-      <c r="K30" s="65"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="59"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="3.75" customHeight="1">
@@ -3242,34 +3196,6 @@
     <row r="53" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:K30"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="J16:K16"/>
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="C3:F3"/>
@@ -3283,6 +3209,34 @@
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="J12:K12"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:K30"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J25:K25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>

--- a/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
+++ b/nts.uk/uk.at/at.ctx/request/nts.uk.ctx.at.request.infra/src/main/resources/application/KAF008_template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.Project\UK\nts.uk\uk.at\at.ctx\request\nts.uk.ctx.at.request.infra\src\main\resources\application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.50.4\share\500_新構想開発\04_設計\60_UI設計\K_就業\KAF_申請\KAF008_出張申請\ver4~\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC5D78F-BCFD-41DA-9CBA-A9F5D655FA5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21390" windowHeight="14115"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20100" windowHeight="11895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="出張申請" sheetId="28" r:id="rId1"/>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="aaaa"/>
   </numFmts>
@@ -107,7 +108,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="源ノ角ゴシック JP Normal"/>
+      <name val="源ノ角ゴシック Normal"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -340,6 +341,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +359,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -373,6 +386,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -409,6 +428,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -433,6 +458,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
     </xf>
@@ -457,6 +497,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -469,62 +518,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="2"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="4"/>
-    <cellStyle name="標準 3" xfId="3"/>
-    <cellStyle name="標準 3 2 2" xfId="5"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 10" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="標準 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 3 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -565,7 +566,7 @@
         <xdr:cNvPr id="37" name="APPORVAL1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FC8374BD-A7B6-49C6-BBAB-D2EF5C293D3C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC8374BD-A7B6-49C6-BBAB-D2EF5C293D3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,7 +585,7 @@
           <xdr:cNvPr id="38" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2839496A-4D27-4D19-BE80-C1B9B628FF6D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2839496A-4D27-4D19-BE80-C1B9B628FF6D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -627,8 +628,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -638,7 +639,7 @@
           <xdr:cNvPr id="39" name="直線コネクタ 38">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6CF9D3A-7551-4392-8ABA-7E6B70EC20BE}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6CF9D3A-7551-4392-8ABA-7E6B70EC20BE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -678,7 +679,7 @@
           <xdr:cNvPr id="40" name="直線コネクタ 39">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7789F3BD-8FFF-4528-8ECB-91F6BE7CFA9C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7789F3BD-8FFF-4528-8ECB-91F6BE7CFA9C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -718,7 +719,7 @@
           <xdr:cNvPr id="41" name="NAME1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AA0AE90E-4F04-4873-8273-3A072F5D9A16}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0AE90E-4F04-4873-8273-3A072F5D9A16}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -756,13 +757,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t>  </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -771,7 +775,7 @@
           <xdr:cNvPr id="42" name="STATUS1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C6F29B78-25AA-4BD9-A608-4905598D6C46}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F29B78-25AA-4BD9-A608-4905598D6C46}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -809,13 +813,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -824,7 +831,7 @@
           <xdr:cNvPr id="43" name="DATE1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26C60543-A4AF-4544-AAFF-160744A594D3}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C60543-A4AF-4544-AAFF-160744A594D3}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -862,13 +869,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -893,7 +903,7 @@
         <xdr:cNvPr id="44" name="APPORVAL2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CB6313A-6925-4859-B75D-0E066C791200}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CB6313A-6925-4859-B75D-0E066C791200}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +922,7 @@
           <xdr:cNvPr id="45" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DEF3A354-7C32-4F15-8BE6-6980439D5285}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEF3A354-7C32-4F15-8BE6-6980439D5285}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -955,8 +965,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -966,7 +976,7 @@
           <xdr:cNvPr id="46" name="直線コネクタ 45">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{264B2C52-D984-43A1-A55D-33BD4C58F3F5}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{264B2C52-D984-43A1-A55D-33BD4C58F3F5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1006,7 +1016,7 @@
           <xdr:cNvPr id="47" name="直線コネクタ 46">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3A99906B-309D-4FC1-960E-184DD7821FC7}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A99906B-309D-4FC1-960E-184DD7821FC7}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1046,7 +1056,7 @@
           <xdr:cNvPr id="48" name="NAME2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D8642208-B8F9-4A09-9902-0A1CF68304E6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8642208-B8F9-4A09-9902-0A1CF68304E6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1084,13 +1094,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1099,7 +1112,7 @@
           <xdr:cNvPr id="49" name="STATUS2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E1DCE04-1A18-417F-A203-52865E09A96B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E1DCE04-1A18-417F-A203-52865E09A96B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1137,13 +1150,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1152,7 +1168,7 @@
           <xdr:cNvPr id="50" name="DATE2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D25E5335-23FF-40F4-9060-7C3A39F611AF}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D25E5335-23FF-40F4-9060-7C3A39F611AF}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1190,13 +1206,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1221,7 +1240,7 @@
         <xdr:cNvPr id="51" name="APPORVAL3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1BAFB009-2070-4ADF-812B-676FCF8A382B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAFB009-2070-4ADF-812B-676FCF8A382B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1240,7 +1259,7 @@
           <xdr:cNvPr id="52" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D728E710-BF45-4687-AF61-686D67A5DF67}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D728E710-BF45-4687-AF61-686D67A5DF67}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1283,8 +1302,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1294,7 +1313,7 @@
           <xdr:cNvPr id="53" name="直線コネクタ 52">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{71127859-532D-401F-816E-DD842A7A108D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71127859-532D-401F-816E-DD842A7A108D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1334,7 +1353,7 @@
           <xdr:cNvPr id="54" name="直線コネクタ 53">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{992C0201-5A9D-4F48-B9C6-B94291A46B56}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992C0201-5A9D-4F48-B9C6-B94291A46B56}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1374,7 +1393,7 @@
           <xdr:cNvPr id="55" name="NAME3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{997BAAFB-6BC4-4B82-A038-09F7694A2B1D}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{997BAAFB-6BC4-4B82-A038-09F7694A2B1D}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1412,13 +1431,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1427,7 +1449,7 @@
           <xdr:cNvPr id="56" name="STATUS3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{696F4AF0-6D3C-483D-A99D-E7D54EE0DEC1}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{696F4AF0-6D3C-483D-A99D-E7D54EE0DEC1}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1465,13 +1487,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1480,7 +1505,7 @@
           <xdr:cNvPr id="57" name="DATE3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AE837A1-B6E7-4965-A9EF-F30923536805}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AE837A1-B6E7-4965-A9EF-F30923536805}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1518,13 +1543,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1549,7 +1577,7 @@
         <xdr:cNvPr id="58" name="APPORVAL4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4D2AEBEE-1A0F-49F4-8123-AF3180BD54DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2AEBEE-1A0F-49F4-8123-AF3180BD54DF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1568,7 +1596,7 @@
           <xdr:cNvPr id="59" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{17A504E2-CFB4-436D-8941-BE7091CA996C}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17A504E2-CFB4-436D-8941-BE7091CA996C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1611,8 +1639,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1622,7 +1650,7 @@
           <xdr:cNvPr id="60" name="直線コネクタ 59">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4930D486-B756-4A7F-A91C-E8ED69FB16D8}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4930D486-B756-4A7F-A91C-E8ED69FB16D8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1662,7 +1690,7 @@
           <xdr:cNvPr id="61" name="直線コネクタ 60">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9E34AADB-AC76-4754-A51F-C57716B572D9}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E34AADB-AC76-4754-A51F-C57716B572D9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1702,7 +1730,7 @@
           <xdr:cNvPr id="62" name="NAME4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7C1E71A2-A50A-46A1-AC05-14B7DC9E3889}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C1E71A2-A50A-46A1-AC05-14B7DC9E3889}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1740,13 +1768,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1755,7 +1786,7 @@
           <xdr:cNvPr id="63" name="STATUS4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6D7655D1-F4A8-48F8-8769-43B992910595}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7655D1-F4A8-48F8-8769-43B992910595}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1793,13 +1824,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1808,7 +1842,7 @@
           <xdr:cNvPr id="64" name="DATE4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BC6FFF2E-BED1-42A8-B009-05AD76F80C09}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC6FFF2E-BED1-42A8-B009-05AD76F80C09}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1846,13 +1880,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -1877,7 +1914,7 @@
         <xdr:cNvPr id="100" name="APPORVAL5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D754BAE-E6BD-4912-835B-D862B5660E9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D754BAE-E6BD-4912-835B-D862B5660E9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1896,7 +1933,7 @@
           <xdr:cNvPr id="101" name="円/楕円 2">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C76BD216-4003-4EB1-ADAC-5A418CDF22D2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C76BD216-4003-4EB1-ADAC-5A418CDF22D2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1939,8 +1976,8 @@
           <a:p>
             <a:pPr algn="l"/>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
             </a:endParaRPr>
           </a:p>
         </xdr:txBody>
@@ -1950,7 +1987,7 @@
           <xdr:cNvPr id="102" name="直線コネクタ 101">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B538AA7A-A766-4A41-AE7E-7A15A3C3FDAB}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B538AA7A-A766-4A41-AE7E-7A15A3C3FDAB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1990,7 +2027,7 @@
           <xdr:cNvPr id="103" name="直線コネクタ 102">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{33D67A12-4856-4E6A-BE32-B2FBCACC7A3E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33D67A12-4856-4E6A-BE32-B2FBCACC7A3E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2030,7 +2067,7 @@
           <xdr:cNvPr id="104" name="NAME5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B6A7BC4-381F-4619-9A63-184E2A6328C6}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B6A7BC4-381F-4619-9A63-184E2A6328C6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2068,13 +2105,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2083,7 +2123,7 @@
           <xdr:cNvPr id="105" name="STATUS5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C96BA7DD-DA02-4F4A-8B1E-17AECD42B422}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C96BA7DD-DA02-4F4A-8B1E-17AECD42B422}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2121,13 +2161,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2136,7 +2179,7 @@
           <xdr:cNvPr id="106" name="DATE5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6164D477-B512-4038-B30D-8685394C4A1E}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6164D477-B512-4038-B30D-8685394C4A1E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2174,13 +2217,16 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:latin typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-              <a:ea typeface="源ノ角ゴシック JP Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
-            </a:endParaRPr>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="700">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:latin typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+                <a:ea typeface="源ノ角ゴシック Normal" panose="020B0400000000000000" pitchFamily="34" charset="-128"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
@@ -2575,12 +2621,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2184022B-8B52-4EAD-B846-0F9397241960}">
   <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="0.77734375" style="2" customWidth="1"/>
     <col min="2" max="11" width="7.21875" style="2" customWidth="1"/>
@@ -2613,587 +2659,587 @@
     <row r="3" spans="1:14" ht="15" customHeight="1">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="10"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="9.9499999999999993" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="64"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="18" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="18" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="18" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="18" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
       <c r="L12" s="1"/>
-      <c r="N12" s="30"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="18" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="18" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="18" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" ht="18" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="18" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="1:12" ht="18" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" ht="18" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="18" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
       <c r="L23" s="1"/>
     </row>
     <row r="24" spans="1:12" ht="18" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="18" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="3.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="37"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="90" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="56"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="50"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" ht="3.75" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="3.75" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="44"/>
-      <c r="J29" s="44"/>
-      <c r="K29" s="45"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="58"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" ht="74.25" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="59"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="61"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="1:12" ht="3.75" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="52"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="64"/>
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" ht="15" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" ht="15" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" ht="15" customHeight="1">
       <c r="A34" s="1"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" ht="15" customHeight="1">
       <c r="A35" s="1"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
       <c r="L35" s="1"/>
     </row>
     <row r="36" spans="1:12" ht="15" customHeight="1">
       <c r="A36" s="1"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1">
       <c r="A37" s="1"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
       <c r="L37" s="1"/>
     </row>
     <row r="38" spans="1:12" ht="15" customHeight="1">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
     </row>
     <row r="39" spans="1:12" ht="15" customHeight="1">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
     </row>
     <row r="40" spans="1:12" ht="15" customHeight="1">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
     </row>
     <row r="41" spans="1:12" ht="15" customHeight="1">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1">
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
     </row>
     <row r="44" spans="1:12" ht="15" customHeight="1">
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
     </row>
     <row r="45" spans="1:12" ht="15" customHeight="1"/>
     <row r="46" spans="1:12" ht="15" customHeight="1"/>
     <row r="47" spans="1:12" ht="15" customHeight="1"/>
     <row r="48" spans="1:12" ht="15" customHeight="1"/>
-    <row r="49" ht="15" customHeight="1"/>
-    <row r="50" ht="15" customHeight="1"/>
-    <row r="51" ht="15" customHeight="1"/>
-    <row r="52" ht="15" customHeight="1"/>
-    <row r="53" ht="15" customHeight="1"/>
+    <row r="49" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="50" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="51" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="52" s="2" customFormat="1" ht="15" customHeight="1"/>
+    <row r="53" s="2" customFormat="1" ht="15" customHeight="1"/>
   </sheetData>
   <mergeCells count="41">
     <mergeCell ref="F13:G13"/>
